--- a/Code/Results/Cases/Case_1_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_239/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05667404849994284</v>
+        <v>0.01346709464073825</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1013113612233596</v>
+        <v>0.09839034561176163</v>
       </c>
       <c r="E2">
-        <v>0.1944696354902717</v>
+        <v>0.08715071546011899</v>
       </c>
       <c r="F2">
-        <v>3.27045983515535</v>
+        <v>2.327451142757326</v>
       </c>
       <c r="G2">
-        <v>0.0007951834857433381</v>
+        <v>0.002499701495881771</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.092769710590375</v>
+        <v>0.9904076902168129</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.840571817367447</v>
+        <v>1.068416812942957</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9417006402133268</v>
+        <v>0.377465322921239</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05138707092672945</v>
+        <v>0.01172385200466408</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09675811096769849</v>
+        <v>0.09685251569027997</v>
       </c>
       <c r="E3">
-        <v>0.1683135085346308</v>
+        <v>0.08055482906144817</v>
       </c>
       <c r="F3">
-        <v>2.923312806974991</v>
+        <v>2.240213611897161</v>
       </c>
       <c r="G3">
-        <v>0.0008048419736923618</v>
+        <v>0.002505385771277737</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.021876148911119</v>
+        <v>0.9702629219094874</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.437891402819417</v>
+        <v>0.9712770788696616</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8092021091577166</v>
+        <v>0.3450811230665707</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04805774005383512</v>
+        <v>0.01065414387012709</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09407781230791556</v>
+        <v>0.09592033180601334</v>
       </c>
       <c r="E4">
-        <v>0.1526667059004936</v>
+        <v>0.07655574282366473</v>
       </c>
       <c r="F4">
-        <v>2.716103367980196</v>
+        <v>2.187677846285908</v>
       </c>
       <c r="G4">
-        <v>0.0008109059730775094</v>
+        <v>0.002509055331344676</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9796223869868825</v>
+        <v>0.958087349038621</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.195825179656424</v>
+        <v>0.9123656320355451</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.729682652207714</v>
+        <v>0.3254464176148062</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0466815072154354</v>
+        <v>0.01021850610021602</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09301120183996403</v>
+        <v>0.09554340943805784</v>
       </c>
       <c r="E5">
-        <v>0.1463800398866795</v>
+        <v>0.07493859568520378</v>
       </c>
       <c r="F5">
-        <v>2.632977872363568</v>
+        <v>2.166524873697327</v>
       </c>
       <c r="G5">
-        <v>0.0008134131273144442</v>
+        <v>0.002510595982713374</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9626892892175221</v>
+        <v>0.9531736481063504</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.098287632490951</v>
+        <v>0.8885401875607215</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6976720806188013</v>
+        <v>0.3175067585451643</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04645184546649617</v>
+        <v>0.01014618885529472</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09283554738320277</v>
+        <v>0.09548099761575202</v>
       </c>
       <c r="E6">
-        <v>0.1453411581502735</v>
+        <v>0.07467081770150941</v>
       </c>
       <c r="F6">
-        <v>2.61924937805756</v>
+        <v>2.163027804968536</v>
       </c>
       <c r="G6">
-        <v>0.0008138316808384494</v>
+        <v>0.002510854545946606</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9598938483202772</v>
+        <v>0.9523606074356508</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.082153045412753</v>
+        <v>0.8845948686443421</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6923787217158406</v>
+        <v>0.3161920768393287</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.04803925690578836</v>
+        <v>0.01064826743473901</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09406332807526496</v>
+        <v>0.09591523666033197</v>
       </c>
       <c r="E7">
-        <v>0.1525815771630405</v>
+        <v>0.07653388309276465</v>
       </c>
       <c r="F7">
-        <v>2.714977213183033</v>
+        <v>2.187391538015135</v>
       </c>
       <c r="G7">
-        <v>0.0008109396365289107</v>
+        <v>0.002509075925607007</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9793929087506754</v>
+        <v>0.9580208879449259</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.194505519900503</v>
+        <v>0.9120435827544497</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7292494341464035</v>
+        <v>0.3253390923819452</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05486922196295296</v>
+        <v>0.01286595705332871</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09971529536223045</v>
+        <v>0.09785755230133475</v>
       </c>
       <c r="E8">
-        <v>0.1853561390745213</v>
+        <v>0.08486574512058809</v>
       </c>
       <c r="F8">
-        <v>3.149416870950944</v>
+        <v>2.297156452012388</v>
       </c>
       <c r="G8">
-        <v>0.0007984875228921421</v>
+        <v>0.002501624301490452</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.06803887192261</v>
+        <v>0.9834212145729921</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.700527557233244</v>
+        <v>1.034769219037088</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8955915943589687</v>
+        <v>0.3662468561653398</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06753425271062952</v>
+        <v>0.01721522638160167</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1118881118693267</v>
+        <v>0.1017658234562617</v>
       </c>
       <c r="E9">
-        <v>0.2536403399666227</v>
+        <v>0.1016205553731879</v>
       </c>
       <c r="F9">
-        <v>4.057636485431573</v>
+        <v>2.520705899553377</v>
       </c>
       <c r="G9">
-        <v>0.0007750066041131176</v>
+        <v>0.002488427486986866</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.253757504467103</v>
+        <v>1.034799275449956</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.744013651523119</v>
+        <v>1.281389000457466</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.239792970295085</v>
+        <v>0.4484973477919993</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07628681488900213</v>
+        <v>0.02040477563646448</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1217758086095273</v>
+        <v>0.1047033279160843</v>
       </c>
       <c r="E10">
-        <v>0.30744021571536</v>
+        <v>0.1142030927544226</v>
       </c>
       <c r="F10">
-        <v>4.773876325323982</v>
+        <v>2.690221673822947</v>
       </c>
       <c r="G10">
-        <v>0.000758130642958438</v>
+        <v>0.002479584224491989</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.40024959204618</v>
+        <v>1.073552929093879</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.558101081384279</v>
+        <v>1.466427697328129</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.509206826723556</v>
+        <v>0.5102438372602194</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.08011990489612941</v>
+        <v>0.02185324553368417</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1265549986173156</v>
+        <v>0.1060552342067851</v>
       </c>
       <c r="E11">
-        <v>0.3330234170008168</v>
+        <v>0.1199907037461401</v>
       </c>
       <c r="F11">
-        <v>5.114266017587994</v>
+        <v>2.76853169907659</v>
       </c>
       <c r="G11">
-        <v>0.0007504825972115547</v>
+        <v>0.00247574400805183</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.469812207394455</v>
+        <v>1.091412530952269</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.943132253973033</v>
+        <v>1.551490829243392</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.636857507114712</v>
+        <v>0.5386376717180781</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.08154715095706422</v>
+        <v>0.02240127691406002</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1284128784199652</v>
+        <v>0.1065695051665898</v>
       </c>
       <c r="E12">
-        <v>0.3429027921073029</v>
+        <v>0.1221918141032816</v>
       </c>
       <c r="F12">
-        <v>5.245648796526694</v>
+        <v>2.798361267402186</v>
       </c>
       <c r="G12">
-        <v>0.0007475854420166325</v>
+        <v>0.002474315904117962</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.496646858601267</v>
+        <v>1.09820944404548</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.091487383234892</v>
+        <v>1.583833386389472</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.686078449593339</v>
+        <v>0.5494348831109903</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.08124089845481564</v>
+        <v>0.02228327143586739</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1280104746093613</v>
+        <v>0.1064586425401117</v>
       </c>
       <c r="E13">
-        <v>0.3407660016817928</v>
+        <v>0.1217173396979163</v>
       </c>
       <c r="F13">
-        <v>5.217235758552789</v>
+        <v>2.791929089672578</v>
       </c>
       <c r="G13">
-        <v>0.0007482095325036567</v>
+        <v>0.002474622313666189</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.490844341311771</v>
+        <v>1.096744088968677</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.059415146267781</v>
+        <v>1.576861958888855</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.675435926003658</v>
+        <v>0.5471074857681799</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.08023782988095718</v>
+        <v>0.02189834254900092</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.12670683468005</v>
+        <v>0.1060974963216736</v>
       </c>
       <c r="E14">
-        <v>0.3338321564473716</v>
+        <v>0.1201715989368211</v>
       </c>
       <c r="F14">
-        <v>5.125022700199736</v>
+        <v>2.770982264545722</v>
       </c>
       <c r="G14">
-        <v>0.0007502442993247982</v>
+        <v>0.00247562599496393</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.472009577844418</v>
+        <v>1.091971034019366</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.955283589412602</v>
+        <v>1.554149026466234</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.640888307480182</v>
+        <v>0.539525054222139</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07962016746149914</v>
+        <v>0.0216624974577897</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1259148326435948</v>
+        <v>0.1058765903097907</v>
       </c>
       <c r="E15">
-        <v>0.3296109692041043</v>
+        <v>0.1192260300508465</v>
       </c>
       <c r="F15">
-        <v>5.068875767430001</v>
+        <v>2.758174649691199</v>
       </c>
       <c r="G15">
-        <v>0.0007514903539157836</v>
+        <v>0.002476244173293425</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.46053926373834</v>
+        <v>1.089051832963435</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.891846665701507</v>
+        <v>1.540253857737071</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.619846698823252</v>
+        <v>0.5348865035553985</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07603308708790024</v>
+        <v>0.0203100549399764</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1214697617150335</v>
+        <v>0.1046152994240828</v>
       </c>
       <c r="E16">
-        <v>0.3057932347266501</v>
+        <v>0.1138261671756666</v>
       </c>
       <c r="F16">
-        <v>4.751956102853313</v>
+        <v>2.685128278747129</v>
       </c>
       <c r="G16">
-        <v>0.000758630619814941</v>
+        <v>0.002479838852916645</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.395768272183588</v>
+        <v>1.072390461117195</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.53326999671458</v>
+        <v>1.460886771898856</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.500979297045845</v>
+        <v>0.5083944752465186</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.07379256719114125</v>
+        <v>0.01947965847408994</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1188199348659538</v>
+        <v>0.1038456009595947</v>
       </c>
       <c r="E17">
-        <v>0.291487122433125</v>
+        <v>0.1105300667474935</v>
       </c>
       <c r="F17">
-        <v>4.561525535836438</v>
+        <v>2.640625407199792</v>
       </c>
       <c r="G17">
-        <v>0.0007630149269194728</v>
+        <v>0.002482090734659881</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.356830142600344</v>
+        <v>1.062228779396307</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.31734916487494</v>
+        <v>1.412427416505011</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.429461517683706</v>
+        <v>0.492221462552564</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.07249010102746922</v>
+        <v>0.0190018106755474</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1173217661455439</v>
+        <v>0.1034043558126783</v>
       </c>
       <c r="E18">
-        <v>0.2833608388337581</v>
+        <v>0.1086402193354417</v>
       </c>
       <c r="F18">
-        <v>4.453339482934695</v>
+        <v>2.615140953093317</v>
       </c>
       <c r="G18">
-        <v>0.0007655397394886886</v>
+        <v>0.002483403156764518</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.334704116144948</v>
+        <v>1.056405687740352</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.194510561262689</v>
+        <v>1.384638268422464</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.388795434612376</v>
+        <v>0.4829478116782298</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.07204682324218226</v>
+        <v>0.01883998443788215</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.116818754852531</v>
+        <v>0.1032552067681962</v>
       </c>
       <c r="E19">
-        <v>0.2806260830932317</v>
+        <v>0.1080013678786216</v>
       </c>
       <c r="F19">
-        <v>4.416929603821217</v>
+        <v>2.606531565987751</v>
       </c>
       <c r="G19">
-        <v>0.0007663952699258294</v>
+        <v>0.002483850479149799</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.327256989476027</v>
+        <v>1.054437782909673</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.153139761887076</v>
+        <v>1.375243563891047</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.375102984918584</v>
+        <v>0.4798127947746025</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.07403251998573523</v>
+        <v>0.01956807980695174</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1190992772498092</v>
+        <v>0.1039273844198334</v>
       </c>
       <c r="E20">
-        <v>0.2929992386238638</v>
+        <v>0.110880320951054</v>
       </c>
       <c r="F20">
-        <v>4.581655413086651</v>
+        <v>2.645351155622365</v>
       </c>
       <c r="G20">
-        <v>0.0007625479265124256</v>
+        <v>0.002481849239127667</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.360946722499833</v>
+        <v>1.063308262855401</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.340191294690612</v>
+        <v>1.417577343323842</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.43702515478914</v>
+        <v>0.4939401346675538</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.08053313943027263</v>
+        <v>0.02201141925534245</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1270883719550966</v>
+        <v>0.1062035096964706</v>
       </c>
       <c r="E21">
-        <v>0.3358633127374375</v>
+        <v>0.1206253611019079</v>
       </c>
       <c r="F21">
-        <v>5.152037052307321</v>
+        <v>2.777130072458391</v>
       </c>
       <c r="G21">
-        <v>0.0007496467116379742</v>
+        <v>0.002475330482088079</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.477527795386791</v>
+        <v>1.093372070809664</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.985796416438006</v>
+        <v>1.560816783570999</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.651010508125339</v>
+        <v>0.5417509648272585</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.08463854144125804</v>
+        <v>0.02360547340068564</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1325946940793017</v>
+        <v>0.1077047308471535</v>
       </c>
       <c r="E22">
-        <v>0.3650131989066665</v>
+        <v>0.1270496357363555</v>
       </c>
       <c r="F22">
-        <v>5.53952681384331</v>
+        <v>2.864278294580231</v>
       </c>
       <c r="G22">
-        <v>0.0007412061058511723</v>
+        <v>0.002471222171051339</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.556635015050034</v>
+        <v>1.113218272427432</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.422873934141705</v>
+        <v>1.655197154132964</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.796095007442304</v>
+        <v>0.573261463000847</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.08246159716716761</v>
+        <v>0.02275499234538358</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1296268872072801</v>
+        <v>0.1069022236754122</v>
       </c>
       <c r="E23">
-        <v>0.3493393402281555</v>
+        <v>0.1236157165706473</v>
       </c>
       <c r="F23">
-        <v>5.331223691989692</v>
+        <v>2.817670962184167</v>
       </c>
       <c r="G23">
-        <v>0.0007457137712871035</v>
+        <v>0.002473400991774309</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.514120245358967</v>
+        <v>1.102607639024797</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.188046952238665</v>
+        <v>1.604753461539588</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.71812527652186</v>
+        <v>0.5564192117371505</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.07392408184721688</v>
+        <v>0.01952810588975495</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1189729084647837</v>
+        <v>0.1038904061842771</v>
       </c>
       <c r="E24">
-        <v>0.2923153064592796</v>
+        <v>0.1107219550862197</v>
       </c>
       <c r="F24">
-        <v>4.57255069046937</v>
+        <v>2.643214330910013</v>
       </c>
       <c r="G24">
-        <v>0.0007627590438550325</v>
+        <v>0.002481958363938608</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.359084812146548</v>
+        <v>1.062820169275824</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.329860359532688</v>
+        <v>1.41524884118968</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.433604242406716</v>
+        <v>0.4931630470034065</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.06419634928772666</v>
+        <v>0.01603922511037581</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1084519220670188</v>
+        <v>0.1006973247328489</v>
       </c>
       <c r="E25">
-        <v>0.2346257663383327</v>
+        <v>0.09704143016512035</v>
       </c>
       <c r="F25">
-        <v>3.804519806986406</v>
+        <v>2.459319266532134</v>
       </c>
       <c r="G25">
-        <v>0.0007812771136052414</v>
+        <v>0.002491847108669086</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.201975720920089</v>
+        <v>1.020727093195973</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.454705899703583</v>
+        <v>1.21401210626226</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.144223861599095</v>
+        <v>0.4260209212637918</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_239/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_239/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01346709464073825</v>
+        <v>0.056674048499886</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09839034561176163</v>
+        <v>0.1013113612233525</v>
       </c>
       <c r="E2">
-        <v>0.08715071546011899</v>
+        <v>0.1944696354902433</v>
       </c>
       <c r="F2">
-        <v>2.327451142757326</v>
+        <v>3.27045983515535</v>
       </c>
       <c r="G2">
-        <v>0.002499701495881771</v>
+        <v>0.0007951834859271827</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9904076902168129</v>
+        <v>1.092769710590396</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.068416812942957</v>
+        <v>2.84057181736739</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.377465322921239</v>
+        <v>0.9417006402133197</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01172385200466408</v>
+        <v>0.05138707092674366</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09685251569027997</v>
+        <v>0.09675811096748532</v>
       </c>
       <c r="E3">
-        <v>0.08055482906144817</v>
+        <v>0.1683135085346308</v>
       </c>
       <c r="F3">
-        <v>2.240213611897161</v>
+        <v>2.923312806974991</v>
       </c>
       <c r="G3">
-        <v>0.002505385771277737</v>
+        <v>0.0008048419738230848</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9702629219094874</v>
+        <v>1.021876148911133</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9712770788696616</v>
+        <v>2.437891402819531</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3450811230665707</v>
+        <v>0.8092021091577095</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01065414387012709</v>
+        <v>0.04805774005379249</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09592033180601334</v>
+        <v>0.09407781230779477</v>
       </c>
       <c r="E4">
-        <v>0.07655574282366473</v>
+        <v>0.1526667059004438</v>
       </c>
       <c r="F4">
-        <v>2.187677846285908</v>
+        <v>2.716103367980196</v>
       </c>
       <c r="G4">
-        <v>0.002509055331344676</v>
+        <v>0.0008109059730169343</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.958087349038621</v>
+        <v>0.9796223869868896</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9123656320355451</v>
+        <v>2.19582517965631</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3254464176148062</v>
+        <v>0.7296826522076998</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01021850610021602</v>
+        <v>0.04668150721543185</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.09554340943805784</v>
+        <v>0.09301120183985034</v>
       </c>
       <c r="E5">
-        <v>0.07493859568520378</v>
+        <v>0.1463800398866795</v>
       </c>
       <c r="F5">
-        <v>2.166524873697327</v>
+        <v>2.632977872363583</v>
       </c>
       <c r="G5">
-        <v>0.002510595982713374</v>
+        <v>0.000813413127313761</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9531736481063504</v>
+        <v>0.962689289217515</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8885401875607215</v>
+        <v>2.098287632490951</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3175067585451643</v>
+        <v>0.6976720806187942</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01014618885529472</v>
+        <v>0.04645184546643932</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.09548099761575202</v>
+        <v>0.09283554738321698</v>
       </c>
       <c r="E6">
-        <v>0.07467081770150941</v>
+        <v>0.1453411581502735</v>
       </c>
       <c r="F6">
-        <v>2.163027804968536</v>
+        <v>2.61924937805756</v>
       </c>
       <c r="G6">
-        <v>0.002510854545946606</v>
+        <v>0.0008138316808398941</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9523606074356508</v>
+        <v>0.9598938483202701</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8845948686443421</v>
+        <v>2.08215304541261</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3161920768393287</v>
+        <v>0.6923787217158406</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01064826743473901</v>
+        <v>0.04803925690575639</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09591523666033197</v>
+        <v>0.09406332807539997</v>
       </c>
       <c r="E7">
-        <v>0.07653388309276465</v>
+        <v>0.1525815771630405</v>
       </c>
       <c r="F7">
-        <v>2.187391538015135</v>
+        <v>2.714977213183033</v>
       </c>
       <c r="G7">
-        <v>0.002509075925607007</v>
+        <v>0.0008109396364115681</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9580208879449259</v>
+        <v>0.9793929087506541</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9120435827544497</v>
+        <v>2.194505519900389</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3253390923819452</v>
+        <v>0.7292494341464106</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01286595705332871</v>
+        <v>0.05486922196306665</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09785755230133475</v>
+        <v>0.09971529536232282</v>
       </c>
       <c r="E8">
-        <v>0.08486574512058809</v>
+        <v>0.1853561390745142</v>
       </c>
       <c r="F8">
-        <v>2.297156452012388</v>
+        <v>3.149416870951001</v>
       </c>
       <c r="G8">
-        <v>0.002501624301490452</v>
+        <v>0.0007984875228912354</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9834212145729921</v>
+        <v>1.068038871922603</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.034769219037088</v>
+        <v>2.700527557233215</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3662468561653398</v>
+        <v>0.8955915943589687</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01721522638160167</v>
+        <v>0.06753425271055136</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1017658234562617</v>
+        <v>0.1118881118693551</v>
       </c>
       <c r="E9">
-        <v>0.1016205553731879</v>
+        <v>0.2536403399667009</v>
       </c>
       <c r="F9">
-        <v>2.520705899553377</v>
+        <v>4.057636485431544</v>
       </c>
       <c r="G9">
-        <v>0.002488427486986866</v>
+        <v>0.0007750066041154977</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.034799275449956</v>
+        <v>1.253757504467131</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.281389000457466</v>
+        <v>3.744013651523176</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4484973477919993</v>
+        <v>1.239792970295099</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02040477563646448</v>
+        <v>0.07628681488916556</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1047033279160843</v>
+        <v>0.1217758086097405</v>
       </c>
       <c r="E10">
-        <v>0.1142030927544226</v>
+        <v>0.3074402157153528</v>
       </c>
       <c r="F10">
-        <v>2.690221673822947</v>
+        <v>4.773876325324011</v>
       </c>
       <c r="G10">
-        <v>0.002479584224491989</v>
+        <v>0.0007581306429004843</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.073552929093879</v>
+        <v>1.400249592046194</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.466427697328129</v>
+        <v>4.558101081384336</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5102438372602194</v>
+        <v>1.509206826723585</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.02185324553368417</v>
+        <v>0.08011990489614362</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1060552342067851</v>
+        <v>0.1265549986169177</v>
       </c>
       <c r="E11">
-        <v>0.1199907037461401</v>
+        <v>0.3330234170008453</v>
       </c>
       <c r="F11">
-        <v>2.76853169907659</v>
+        <v>5.114266017588022</v>
       </c>
       <c r="G11">
-        <v>0.00247574400805183</v>
+        <v>0.0007504825972090755</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.091412530952269</v>
+        <v>1.469812207394455</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.551490829243392</v>
+        <v>4.943132253973033</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5386376717180781</v>
+        <v>1.636857507114698</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.02240127691406002</v>
+        <v>0.08154715095705711</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1065695051665898</v>
+        <v>0.1284128784197307</v>
       </c>
       <c r="E12">
-        <v>0.1221918141032816</v>
+        <v>0.3429027921072674</v>
       </c>
       <c r="F12">
-        <v>2.798361267402186</v>
+        <v>5.245648796526751</v>
       </c>
       <c r="G12">
-        <v>0.002474315904117962</v>
+        <v>0.0007475854421280934</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.09820944404548</v>
+        <v>1.496646858601267</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.583833386389472</v>
+        <v>5.091487383234778</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5494348831109903</v>
+        <v>1.686078449593339</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.02228327143586739</v>
+        <v>0.08124089845478011</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1064586425401117</v>
+        <v>0.1280104746098942</v>
       </c>
       <c r="E13">
-        <v>0.1217173396979163</v>
+        <v>0.3407660016818781</v>
       </c>
       <c r="F13">
-        <v>2.791929089672578</v>
+        <v>5.217235758552846</v>
       </c>
       <c r="G13">
-        <v>0.002474622313666189</v>
+        <v>0.000748209532414279</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.096744088968677</v>
+        <v>1.490844341311785</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.576861958888855</v>
+        <v>5.059415146267781</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5471074857681799</v>
+        <v>1.675435926003658</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02189834254900092</v>
+        <v>0.08023782988105665</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1060974963216736</v>
+        <v>0.1267068346800286</v>
       </c>
       <c r="E14">
-        <v>0.1201715989368211</v>
+        <v>0.3338321564473716</v>
       </c>
       <c r="F14">
-        <v>2.770982264545722</v>
+        <v>5.125022700199736</v>
       </c>
       <c r="G14">
-        <v>0.00247562599496393</v>
+        <v>0.00075024429924023</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.091971034019366</v>
+        <v>1.472009577844418</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.554149026466234</v>
+        <v>4.955283589412602</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.539525054222139</v>
+        <v>1.640888307480211</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0216624974577897</v>
+        <v>0.07962016746164124</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1058765903097907</v>
+        <v>0.1259148326436659</v>
       </c>
       <c r="E15">
-        <v>0.1192260300508465</v>
+        <v>0.3296109692041043</v>
       </c>
       <c r="F15">
-        <v>2.758174649691199</v>
+        <v>5.068875767429972</v>
       </c>
       <c r="G15">
-        <v>0.002476244173293425</v>
+        <v>0.0007514903538574534</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.089051832963435</v>
+        <v>1.46053926373834</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.540253857737071</v>
+        <v>4.891846665701394</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5348865035553985</v>
+        <v>1.619846698823267</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0203100549399764</v>
+        <v>0.0760330870878434</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1046152994240828</v>
+        <v>0.1214697617152609</v>
       </c>
       <c r="E16">
-        <v>0.1138261671756666</v>
+        <v>0.3057932347266004</v>
       </c>
       <c r="F16">
-        <v>2.685128278747129</v>
+        <v>4.751956102853313</v>
       </c>
       <c r="G16">
-        <v>0.002479838852916645</v>
+        <v>0.0007586306198966804</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.072390461117195</v>
+        <v>1.395768272183574</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.460886771898856</v>
+        <v>4.53326999671458</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5083944752465186</v>
+        <v>1.500979297045859</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01947965847408994</v>
+        <v>0.07379256719126204</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1038456009595947</v>
+        <v>0.1188199348661669</v>
       </c>
       <c r="E17">
-        <v>0.1105300667474935</v>
+        <v>0.2914871224331819</v>
       </c>
       <c r="F17">
-        <v>2.640625407199792</v>
+        <v>4.56152553583641</v>
       </c>
       <c r="G17">
-        <v>0.002482090734659881</v>
+        <v>0.0007630149269971149</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.062228779396307</v>
+        <v>1.356830142600359</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.412427416505011</v>
+        <v>4.317349164874997</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.492221462552564</v>
+        <v>1.429461517683734</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.0190018106755474</v>
+        <v>0.07249010102750475</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1034043558126783</v>
+        <v>0.1173217661455439</v>
       </c>
       <c r="E18">
-        <v>0.1086402193354417</v>
+        <v>0.2833608388337865</v>
       </c>
       <c r="F18">
-        <v>2.615140953093317</v>
+        <v>4.453339482934666</v>
       </c>
       <c r="G18">
-        <v>0.002483403156764518</v>
+        <v>0.0007655397394898648</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.056405687740352</v>
+        <v>1.334704116144948</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.384638268422464</v>
+        <v>4.194510561262689</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4829478116782298</v>
+        <v>1.388795434612391</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01883998443788215</v>
+        <v>0.07204682324222489</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1032552067681962</v>
+        <v>0.1168187548525239</v>
       </c>
       <c r="E19">
-        <v>0.1080013678786216</v>
+        <v>0.2806260830932317</v>
       </c>
       <c r="F19">
-        <v>2.606531565987751</v>
+        <v>4.416929603821188</v>
       </c>
       <c r="G19">
-        <v>0.002483850479149799</v>
+        <v>0.0007663952698446774</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.054437782909673</v>
+        <v>1.327256989476012</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.375243563891047</v>
+        <v>4.153139761887132</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4798127947746025</v>
+        <v>1.375102984918556</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01956807980695174</v>
+        <v>0.07403251998571392</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1039273844198334</v>
+        <v>0.1190992772494113</v>
       </c>
       <c r="E20">
-        <v>0.110880320951054</v>
+        <v>0.2929992386239064</v>
       </c>
       <c r="F20">
-        <v>2.645351155622365</v>
+        <v>4.581655413086679</v>
       </c>
       <c r="G20">
-        <v>0.002481849239127667</v>
+        <v>0.0007625479265095371</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.063308262855401</v>
+        <v>1.360946722499818</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.417577343323842</v>
+        <v>4.340191294690726</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4939401346675538</v>
+        <v>1.437025154789126</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.02201141925534245</v>
+        <v>0.08053313943027973</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1062035096964706</v>
+        <v>0.1270883719548976</v>
       </c>
       <c r="E21">
-        <v>0.1206253611019079</v>
+        <v>0.3358633127374091</v>
       </c>
       <c r="F21">
-        <v>2.777130072458391</v>
+        <v>5.15203705230735</v>
       </c>
       <c r="G21">
-        <v>0.002475330482088079</v>
+        <v>0.0007496467116346936</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.093372070809664</v>
+        <v>1.47752779538682</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.560816783570999</v>
+        <v>4.98579641643795</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5417509648272585</v>
+        <v>1.651010508125381</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.02360547340068564</v>
+        <v>0.08463854144150673</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1077047308471535</v>
+        <v>0.1325946940791027</v>
       </c>
       <c r="E22">
-        <v>0.1270496357363555</v>
+        <v>0.365013198906631</v>
       </c>
       <c r="F22">
-        <v>2.864278294580231</v>
+        <v>5.539526813843366</v>
       </c>
       <c r="G22">
-        <v>0.002471222171051339</v>
+        <v>0.0007412061058545874</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.113218272427432</v>
+        <v>1.556635015050048</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.655197154132964</v>
+        <v>5.422873934141535</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.573261463000847</v>
+        <v>1.79609500744229</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.02275499234538358</v>
+        <v>0.08246159716739498</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1069022236754122</v>
+        <v>0.1296268872074506</v>
       </c>
       <c r="E23">
-        <v>0.1236157165706473</v>
+        <v>0.3493393402280773</v>
       </c>
       <c r="F23">
-        <v>2.817670962184167</v>
+        <v>5.331223691989635</v>
       </c>
       <c r="G23">
-        <v>0.002473400991774309</v>
+        <v>0.0007457137711477522</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.102607639024797</v>
+        <v>1.514120245358953</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.604753461539588</v>
+        <v>5.188046952238778</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5564192117371505</v>
+        <v>1.71812527652186</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01952810588975495</v>
+        <v>0.07392408184726662</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1038904061842771</v>
+        <v>0.1189729084644995</v>
       </c>
       <c r="E24">
-        <v>0.1107219550862197</v>
+        <v>0.2923153064592725</v>
       </c>
       <c r="F24">
-        <v>2.643214330910013</v>
+        <v>4.572550690469399</v>
       </c>
       <c r="G24">
-        <v>0.002481958363938608</v>
+        <v>0.0007627590439898362</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.062820169275824</v>
+        <v>1.359084812146563</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.41524884118968</v>
+        <v>4.329860359532859</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4931630470034065</v>
+        <v>1.433604242406687</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01603922511037581</v>
+        <v>0.06419634928762719</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1006973247328489</v>
+        <v>0.1084519220670259</v>
       </c>
       <c r="E25">
-        <v>0.09704143016512035</v>
+        <v>0.2346257663383398</v>
       </c>
       <c r="F25">
-        <v>2.459319266532134</v>
+        <v>3.804519806986434</v>
       </c>
       <c r="G25">
-        <v>0.002491847108669086</v>
+        <v>0.000781277113622045</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.020727093195973</v>
+        <v>1.201975720920089</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.21401210626226</v>
+        <v>3.454705899703697</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4260209212637918</v>
+        <v>1.144223861599102</v>
       </c>
       <c r="N25">
         <v>0</v>
